--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="6252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="6252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
@@ -4100,7 +4100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -5000,9 +5000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1086"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5596,7 +5596,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="39">
-        <v>2000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="6252" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="6252"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>TC_ID</t>
   </si>
@@ -579,647 +579,88 @@
     <t>SCREENSHOT</t>
   </si>
   <si>
-    <t>https://demo.nopcommerce.com/</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[1]/div[2]/div[1]/a/img</t>
-  </si>
-  <si>
     <t>TC_002</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>TC_007</t>
-  </si>
-  <si>
-    <t>TC_008</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>TC_012</t>
-  </si>
-  <si>
-    <t>TC_013</t>
-  </si>
-  <si>
-    <t>TC_014</t>
-  </si>
-  <si>
-    <t>TC_015</t>
-  </si>
-  <si>
-    <t>TC_016</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[3]/div/div[1]/h1</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Lanuch browser</t>
   </si>
   <si>
     <t>Enter URL</t>
   </si>
   <si>
-    <t>Verify nopcommerce logo</t>
-  </si>
-  <si>
-    <t>Click on Register</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[1]/div[1]/div[2]/div[1]/ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>Select Gender radio button</t>
-  </si>
-  <si>
-    <t>Enter First Name</t>
-  </si>
-  <si>
-    <t>Enter Last Name</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Sai Ram</t>
-  </si>
-  <si>
-    <t>Pendem</t>
-  </si>
-  <si>
-    <t>Choose Date of birth (Date)</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div/div/div[2]/form/div[1]/div[2]/div[4]/div/select[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div/div/div[2]/form/div[1]/div[2]/div[4]/div/select[2]</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Choose Date of birth (Month)</t>
-  </si>
-  <si>
-    <t>Choose Date of birth (Year)</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div/div/div[2]/form/div[1]/div[2]/div[4]/div/select[3]</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Enter Email address</t>
-  </si>
-  <si>
-    <t>Enter company name</t>
-  </si>
-  <si>
-    <t>Ratna Global Technologies</t>
-  </si>
-  <si>
-    <t>Password</t>
   </si>
   <si>
     <t>Sairam@123</t>
   </si>
   <si>
-    <t>ConfirmPassword</t>
-  </si>
-  <si>
-    <t>register-button</t>
-  </si>
-  <si>
     <t>Enter password</t>
-  </si>
-  <si>
-    <t>Enter Confirm passowrd</t>
-  </si>
-  <si>
-    <t>Click on Register button</t>
-  </si>
-  <si>
-    <t>gender-male</t>
-  </si>
-  <si>
-    <t>//*[@id="Company"]</t>
-  </si>
-  <si>
-    <t>Veify nopcommerce Register page</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div/div/div[2]/div[1]</t>
-  </si>
-  <si>
-    <t>Verify Registration completed message</t>
-  </si>
-  <si>
-    <t>Your registration completed</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce Login page</t>
-  </si>
-  <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
-    <t>Lanuch Browser</t>
-  </si>
-  <si>
-    <t>Click on Login</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[1]/div[1]/div[2]/div[1]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>Enter Email</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
-    <t>Click on Login button</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div/div/div[2]/div[1]/div[2]/form/div[3]/button</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce Register page</t>
-  </si>
-  <si>
-    <t>Enter product name in search bar</t>
-  </si>
-  <si>
-    <t>small-searchterms</t>
-  </si>
-  <si>
-    <t>Click on search button</t>
-  </si>
-  <si>
-    <t>//*[@id="small-search-box-form"]/button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the search bar by entering the products name </t>
-  </si>
-  <si>
-    <t>Verify searched product is present or not</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[2]/div/div[2]/div[3]/div/div[2]/div/div/div/div/div[2]/h2/a</t>
-  </si>
-  <si>
-    <t>Build your own computer</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product "Build your own computer"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Storm VANQUISH 3 Custom Performance PC
-</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product "Digital Storm VANQUISH 3 Custom Performance PC"</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product "Lenovo IdeaCentre 600 All-in-One PC"</t>
-  </si>
-  <si>
-    <t>Lenovo IdeaCentre 600 All-in-One PC</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product "Nikon D5500 DSLR"</t>
-  </si>
-  <si>
-    <t>Nikon D5500 DSLR</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product"adidas Consortium Campus 80s Running Shoes
-"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adidas Consortium Campus 80s Running Shoes
-</t>
-  </si>
-  <si>
-    <t>adidas Consortium Campus 80s Running Shoes</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product "Night Visions"</t>
-  </si>
-  <si>
-    <t>Night Visions</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product "Fahrenheit 451 by Ray Bradbury"</t>
-  </si>
-  <si>
-    <t>Fahrenheit 451 by Ray Bradbury</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product "Elegant Gemstone Necklace (rental)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elegant Gemstone Necklace (rental)
-</t>
-  </si>
-  <si>
-    <t>Elegant Gemstone Necklace (rental)</t>
-  </si>
-  <si>
-    <t>Verify nopcommerce search with Product "$25 Virtual Gift Card"</t>
-  </si>
-  <si>
-    <t>$25 Virtual Gift Card</t>
-  </si>
-  <si>
-    <t>Verify All Electronics menu is clickable in Home page</t>
-  </si>
-  <si>
-    <t>Click on Electronics</t>
-  </si>
-  <si>
-    <t>Verify its navigates to Electronics page</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[2]/ul[1]/li[2]/a</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[2]/div[1]/div[2]/ul/li[2]/ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>Click Camera &amp; photo</t>
-  </si>
-  <si>
-    <t>Verify its navigates to Camera &amp; photo page</t>
-  </si>
-  <si>
-    <t>Camera &amp; photo</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[2]/div[1]/div[2]/ul/li[2]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Cell phones </t>
-  </si>
-  <si>
-    <t>Verify its navigates to Cell phones  page</t>
-  </si>
-  <si>
-    <t>Cell phones</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[2]/div[1]/div[2]/ul/li[2]/ul/li[3]/a</t>
-  </si>
-  <si>
-    <t>Click Others</t>
-  </si>
-  <si>
-    <t>Verify its navigates to Others page</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Verify All Apparel menu is clickable in Home page</t>
-  </si>
-  <si>
-    <t>Click on Apparel</t>
-  </si>
-  <si>
-    <t>Verify its navigates to Apparel page</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[2]/ul[1]/li[3]/a</t>
-  </si>
-  <si>
-    <t>Apparel</t>
-  </si>
-  <si>
-    <t>Click Shoes</t>
-  </si>
-  <si>
-    <t>Verify its navigates to Shoes page</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[2]/div[1]/div[2]/ul/li[3]/ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[2]/div[2]/div[2]/ul/li[3]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>Click Clothing</t>
-  </si>
-  <si>
-    <t>Verify its navigates to Clothing  page</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[2]/div[1]/div[2]/ul/li[3]/ul/li[3]/a</t>
-  </si>
-  <si>
-    <t>Click Accessories</t>
-  </si>
-  <si>
-    <t>Verify its navigates to Accessories page</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
-    <t>Adding product to the cart</t>
-  </si>
-  <si>
-    <t>Click on Camera &amp; photo</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div[3]/div/div[2]/div[2]/div[2]/div/div/div[1]/div/div[2]/h2/a</t>
-  </si>
-  <si>
-    <t>Click on Product</t>
-  </si>
-  <si>
-    <t>//*[@id="product-details-form"]/div[2]/div[1]/div[2]/div[1]/h1</t>
-  </si>
-  <si>
-    <t>Verify product name</t>
-  </si>
-  <si>
-    <t>Click on Add to cart button</t>
-  </si>
-  <si>
-    <t>//*[@id="main-product-img-13"]</t>
-  </si>
-  <si>
-    <t>Verify product image</t>
-  </si>
-  <si>
-    <t>//*[@id="product-details-form"]/div[2]/div[1]/div[1]/div/div[2]/a[1]/img</t>
-  </si>
-  <si>
-    <t>Click on Image-1</t>
-  </si>
-  <si>
-    <t>/html/body/div[2]/div/div[1]/div/button</t>
-  </si>
-  <si>
-    <t>Click on image-1  close button</t>
-  </si>
-  <si>
-    <t>//*[@id="product-details-form"]/div[2]/div[1]/div[1]/div/div[2]/a[2]/img</t>
-  </si>
-  <si>
-    <t>Click on imahe-2</t>
-  </si>
-  <si>
-    <t>Click on image-2  close button</t>
-  </si>
-  <si>
-    <t>//*[@id="price-value-14"]</t>
-  </si>
-  <si>
-    <t>Check price for "Nikon D5500 DSLR - Black"</t>
-  </si>
-  <si>
-    <t>//*[@id="add-to-cart-button-14"]</t>
-  </si>
-  <si>
-    <t>Verify Checkout page</t>
-  </si>
-  <si>
-    <t>Click on Shopping cart</t>
-  </si>
-  <si>
-    <t>Select Gift wrapping</t>
-  </si>
-  <si>
-    <t>//*[@id="checkout_attribute_1"]</t>
-  </si>
-  <si>
-    <t>Yes [+$10.00]</t>
-  </si>
-  <si>
-    <t>//*[@id="shopping-cart-form"]/div[2]/div[3]</t>
-  </si>
-  <si>
-    <t>Verify Gift wrapping value</t>
-  </si>
-  <si>
-    <t>//*[@id="shopping-cart-form"]/div[3]/div[2]/div[1]/table/tbody/tr[4]/td[2]/span/strong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Total amount </t>
-  </si>
-  <si>
-    <t>GET_TEXT</t>
-  </si>
-  <si>
-    <t>//*[@id="shopping-cart-form"]/div[3]/div[2]/div[1]/table/tbody/tr[5]/td[2]/span</t>
-  </si>
-  <si>
-    <t>Click I agree checkbox</t>
-  </si>
-  <si>
-    <t>checkout</t>
-  </si>
-  <si>
-    <t>Click on Checkout button</t>
-  </si>
-  <si>
-    <t>Select Country</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>BillingNewAddress_City</t>
-  </si>
-  <si>
-    <t>Enter city</t>
-  </si>
-  <si>
-    <t>MYLAVARAM</t>
-  </si>
-  <si>
-    <t>BillingNewAddress_Address1</t>
-  </si>
-  <si>
-    <t>Enter Address line 1</t>
-  </si>
-  <si>
-    <t>Taraka Rama Nagar, Plot No - 90</t>
-  </si>
-  <si>
-    <t>Enter Adress line 2</t>
-  </si>
-  <si>
-    <t>BillingNewAddress_Address2</t>
-  </si>
-  <si>
-    <t>Mallikarjuna Nagar, L.B Nagar</t>
-  </si>
-  <si>
-    <t>BillingNewAddress_ZipPostalCode</t>
-  </si>
-  <si>
-    <t>Enter Zip / Postal code</t>
-  </si>
-  <si>
-    <t>BillingNewAddress_PhoneNumber</t>
-  </si>
-  <si>
-    <t>Enter Phone number</t>
-  </si>
-  <si>
-    <t>BillingNewAddress_FaxNumber</t>
-  </si>
-  <si>
-    <t>Enter Fax number</t>
-  </si>
-  <si>
-    <t>MYM27233</t>
-  </si>
-  <si>
-    <t>//*[@id="billing-buttons-container"]/button[4]</t>
-  </si>
-  <si>
-    <t>Click on Continue button</t>
-  </si>
-  <si>
-    <t>Select shipping method</t>
-  </si>
-  <si>
-    <t>//*[@id="shippingoption_1"]</t>
-  </si>
-  <si>
-    <t>//*[@id="shipping-method-buttons-container"]/button</t>
-  </si>
-  <si>
-    <t>Select Payment method</t>
-  </si>
-  <si>
-    <t>//*[@id="paymentmethod_0"]</t>
-  </si>
-  <si>
-    <t>In confirm order get payment method</t>
-  </si>
-  <si>
-    <t>//*[@id="checkout-confirm-order-load"]/div/div/div/div/div[1]/div[2]/ul/li/span[2]</t>
-  </si>
-  <si>
-    <t>In confirm order get Shpping method</t>
-  </si>
-  <si>
-    <t>//*[@id="checkout-confirm-order-load"]/div/div/div/div/div[2]/div[2]/ul/li/span[2]</t>
-  </si>
-  <si>
-    <t>Click on Confirm button</t>
-  </si>
-  <si>
-    <t>//*[@id="confirm-order-buttons-container"]/button</t>
-  </si>
-  <si>
-    <t>Your order has been successfully processed!</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div/div/div[2]/div/div[1]/strong</t>
-  </si>
-  <si>
-    <t>Verify the Order success message</t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div/div/div[2]/div/div[2]/div[1]/strong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Order number </t>
-  </si>
-  <si>
-    <t>/html/body/div[6]/div[3]/div/div/div/div[2]/div/div[3]/button</t>
-  </si>
-  <si>
-    <t>Click on Logout</t>
-  </si>
-  <si>
-    <t>Verify noncommerce Logout</t>
-  </si>
-  <si>
-    <t>//*[@id="topcartlink"]/a</t>
-  </si>
-  <si>
-    <t>termsofservice</t>
-  </si>
-  <si>
-    <t>Verify &amp; get  how many points will earn</t>
-  </si>
-  <si>
-    <t>BillingNewAddress_CountryId</t>
-  </si>
-  <si>
-    <t>//*[@id="payment-method-buttons-container"]/button</t>
-  </si>
-  <si>
-    <t>//*[@id="payment-info-buttons-container"]/button</t>
   </si>
   <si>
     <t>Click on continue button</t>
   </si>
   <si>
-    <t>Take screenshot of registration completed message</t>
+    <t>Veify Ratna global Technologies application</t>
   </si>
   <si>
-    <t>Take sElement screenshot of Logo</t>
+    <t>Lanuch  browser</t>
   </si>
   <si>
-    <t>Verify and take screenshot of success message "The product has been added to your shopping cart"</t>
+    <t>https://www.ratnaglobaltech.com/</t>
   </si>
   <si>
-    <t>Take screenshot of Order succes page</t>
+    <t>//*[@id="header"]/div/div/div/a/img</t>
   </si>
   <si>
-    <t>/html/body/div[6]/div[1]/div[1]/div[2]/div[1]/ul/li[2]/a1111111111111111</t>
+    <t>//*[@id="footer"]/div[1]/div/div/div[4]/ul/li/a</t>
   </si>
   <si>
-    <t>sairamprince019@gmail.com</t>
+    <t>contact@ratnaglobaltech.com</t>
+  </si>
+  <si>
+    <t>verify Email id</t>
+  </si>
+  <si>
+    <t>Verify Logo is displayed or not</t>
+  </si>
+  <si>
+    <t>Verify Amazon application</t>
+  </si>
+  <si>
+    <t>//*[@id="nav-logo-sprites"]</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>Mousehover on Accounts and Lists</t>
+  </si>
+  <si>
+    <t>//*[@id="nav-link-accountList"]</t>
+  </si>
+  <si>
+    <t>//*[@id="nav-flyout-ya-signin"]/a/span</t>
+  </si>
+  <si>
+    <t>Click on sign in button</t>
+  </si>
+  <si>
+    <t>ap_email</t>
+  </si>
+  <si>
+    <t>Enter Eamil or phone number</t>
+  </si>
+  <si>
+    <t>//*[@id="continue"]</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//*[@id="signInSubmit"]</t>
+  </si>
+  <si>
+    <t>Click on sign in</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +849,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,12 +973,35 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="226">
+  <dxfs count="228">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -4100,9 +3564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4134,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>16</v>
@@ -4142,264 +3606,124 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>145</v>
+      <c r="E2" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>136</v>
+      <c r="E3" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="A7" s="30"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="A9" s="30"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="A10" s="30"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="A12" s="30"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>174</v>
-      </c>
+      <c r="A13" s="30"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>191</v>
-      </c>
+      <c r="A14" s="30"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="A15" s="30"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>227</v>
-      </c>
+      <c r="A16" s="30"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>279</v>
-      </c>
+      <c r="A17" s="30"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
@@ -4977,12 +4301,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C99">
-    <cfRule type="cellIs" dxfId="225" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C99">
-    <cfRule type="cellIs" dxfId="224" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5000,9 +4324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5055,11 +4379,11 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>132</v>
+      <c r="C2" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>16</v>
@@ -5084,11 +4408,11 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
+      <c r="C3" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>16</v>
@@ -5103,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5113,11 +4437,11 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>132</v>
+      <c r="C4" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
@@ -5126,7 +4450,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>27</v>
@@ -5142,11 +4466,11 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>132</v>
+      <c r="C5" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -5155,13 +4479,13 @@
         <v>26</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -5171,127 +4495,109 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>132</v>
+      <c r="C6" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I6" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>110</v>
+        <v>12</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -5300,27 +4606,27 @@
         <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="15">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
@@ -5329,27 +4635,27 @@
         <v>26</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -5358,56 +4664,56 @@
         <v>26</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="15">
-        <v>2000</v>
+        <v>30</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B13" s="6">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>292</v>
+      <c r="I13" s="16">
+        <v>9949584131</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
@@ -5416,217 +4722,144 @@
         <v>26</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B15" s="6">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="38" t="s">
-        <v>124</v>
+      <c r="I15" s="49" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B17" s="6">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>14</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6">
-        <v>18</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>135</v>
-      </c>
+      <c r="A19" s="26"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6">
-        <v>19</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="39">
-        <v>2</v>
-      </c>
+      <c r="A20" s="26"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
@@ -5639,236 +4872,92 @@
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="21"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="A24" s="21"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A25" s="21"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="6">
-        <v>4</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A26" s="21"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="6">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>292</v>
-      </c>
+      <c r="A27" s="21"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="6">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>124</v>
-      </c>
+      <c r="A28" s="21"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="6">
-        <v>7</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>14</v>
-      </c>
+      <c r="A29" s="21"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="6">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A30" s="21"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
@@ -5881,120 +4970,48 @@
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="15">
-        <v>3</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="6">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>153</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="40"/>
     </row>
     <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="6">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="40"/>
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="6">
-        <v>4</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>153</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
@@ -6007,91 +5024,37 @@
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="30">
-        <v>1</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>155</v>
-      </c>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="30">
-        <v>2</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="30">
-        <v>3</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>155</v>
-      </c>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
@@ -6103,92 +5066,38 @@
       <c r="H40" s="21"/>
       <c r="I40" s="39"/>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="6">
-        <v>2</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="6">
-        <v>3</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>159</v>
-      </c>
+    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="40"/>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="40"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
@@ -6201,91 +5110,34 @@
       <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="A45" s="30"/>
+      <c r="B45" s="6"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="6">
-        <v>2</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A46" s="30"/>
+      <c r="B46" s="6"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="6">
-        <v>3</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="A47" s="30"/>
+      <c r="B47" s="6"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
@@ -6298,91 +5150,36 @@
       <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="30">
-        <v>1</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="6">
-        <v>2</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A50" s="30"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="6">
-        <v>3</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>164</v>
-      </c>
+      <c r="A51" s="30"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="33"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
@@ -6395,91 +5192,34 @@
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>166</v>
-      </c>
+      <c r="A53" s="30"/>
+      <c r="B53" s="6"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="6">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A54" s="30"/>
+      <c r="B54" s="6"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="6">
-        <v>3</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>166</v>
-      </c>
+      <c r="A55" s="30"/>
+      <c r="B55" s="6"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
@@ -6492,91 +5232,34 @@
       <c r="I56" s="23"/>
     </row>
     <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="6">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>168</v>
-      </c>
+      <c r="A57" s="30"/>
+      <c r="B57" s="6"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="15"/>
     </row>
     <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="6">
-        <v>2</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A58" s="30"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="15"/>
     </row>
     <row r="59" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="6">
-        <v>3</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>168</v>
-      </c>
+      <c r="A59" s="30"/>
+      <c r="B59" s="6"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="15"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
@@ -6589,91 +5272,36 @@
       <c r="I60" s="24"/>
     </row>
     <row r="61" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="30">
-        <v>1</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>170</v>
-      </c>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="6">
-        <v>2</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="A62" s="30"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="33"/>
     </row>
     <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="6">
-        <v>3</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>171</v>
-      </c>
+      <c r="A63" s="30"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="33"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
@@ -6686,91 +5314,34 @@
       <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="6">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="A65" s="30"/>
+      <c r="B65" s="6"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="6">
-        <v>2</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A66" s="30"/>
+      <c r="B66" s="6"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="6">
-        <v>3</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="A67" s="30"/>
+      <c r="B67" s="6"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
@@ -6793,236 +5364,92 @@
       <c r="I69" s="23"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="6">
-        <v>1</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A70" s="30"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="6">
-        <v>2</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>178</v>
-      </c>
+      <c r="A71" s="30"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="6">
-        <v>3</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A72" s="30"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="6">
-        <v>4</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I73" s="15" t="s">
-        <v>182</v>
-      </c>
+      <c r="A73" s="30"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="15"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="6">
-        <v>5</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="A74" s="30"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="40"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="6">
-        <v>6</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" s="40" t="s">
-        <v>186</v>
-      </c>
+      <c r="A75" s="30"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="40"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="6">
-        <v>7</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A76" s="30"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="6">
-        <v>8</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I77" s="15" t="s">
-        <v>190</v>
-      </c>
+      <c r="A77" s="30"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
@@ -7035,236 +5462,92 @@
       <c r="I78" s="24"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="6">
-        <v>1</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A79" s="30"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="15"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="6">
-        <v>2</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="15" t="s">
-        <v>195</v>
-      </c>
+      <c r="A80" s="30"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="6">
-        <v>3</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A81" s="30"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="6">
-        <v>4</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>199</v>
-      </c>
+      <c r="A82" s="30"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="15"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" s="6">
-        <v>5</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I83" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="A83" s="30"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="40"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="6">
-        <v>6</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I84" s="40" t="s">
-        <v>203</v>
-      </c>
+      <c r="A84" s="30"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="40"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="6">
-        <v>7</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I85" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A85" s="30"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="6">
-        <v>8</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" s="15" t="s">
-        <v>207</v>
-      </c>
+      <c r="A86" s="30"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
@@ -7287,352 +5570,136 @@
       <c r="I88" s="23"/>
     </row>
     <row r="89" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="6">
-        <v>1</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="6">
-        <v>2</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I90" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="6">
-        <v>3</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I91" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="6">
-        <v>4</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="15"/>
     </row>
     <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="6">
-        <v>5</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I93" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="6">
-        <v>6</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I94" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="15"/>
     </row>
     <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="6">
-        <v>7</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I95" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="6">
-        <v>8</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I96" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="6">
-        <v>9</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I97" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="15"/>
     </row>
     <row r="98" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="6">
-        <v>10</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I98" s="34">
-        <v>670</v>
-      </c>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="34"/>
     </row>
     <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B99" s="6">
-        <v>11</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="40"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" s="35">
-        <v>12</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D100" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I100" s="36" t="s">
-        <v>14</v>
-      </c>
+      <c r="A100" s="6"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="36"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
@@ -7646,775 +5713,300 @@
       <c r="I101" s="24"/>
     </row>
     <row r="102" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="6">
-        <v>1</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I102" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="6">
-        <v>2</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I103" s="15" t="s">
-        <v>231</v>
-      </c>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="15"/>
     </row>
     <row r="104" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B104" s="6">
-        <v>3</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
       <c r="I104" s="40"/>
     </row>
     <row r="105" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="6">
-        <v>4</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="16"/>
     </row>
     <row r="106" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="6">
-        <v>5</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
       <c r="I106" s="15"/>
     </row>
     <row r="107" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B107" s="6">
-        <v>6</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="15"/>
     </row>
     <row r="108" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B108" s="6">
-        <v>7</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B109" s="6">
-        <v>8</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I109" s="15" t="s">
-        <v>242</v>
-      </c>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="15"/>
     </row>
     <row r="110" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B110" s="6">
-        <v>9</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>245</v>
-      </c>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="15"/>
     </row>
     <row r="111" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B111" s="6">
-        <v>10</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I111" s="15" t="s">
-        <v>248</v>
-      </c>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="15"/>
     </row>
     <row r="112" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B112" s="6">
-        <v>11</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>251</v>
-      </c>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="15"/>
     </row>
     <row r="113" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="6">
-        <v>12</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I113" s="15">
-        <v>521230</v>
-      </c>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="15"/>
     </row>
     <row r="114" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B114" s="6">
-        <v>13</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I114" s="15">
-        <v>6300807373</v>
-      </c>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="15"/>
     </row>
     <row r="115" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B115" s="6">
-        <v>14</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>258</v>
-      </c>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="15"/>
     </row>
     <row r="116" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B116" s="6">
-        <v>15</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I116" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="15"/>
     </row>
     <row r="117" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B117" s="6">
-        <v>16</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I117" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="15"/>
     </row>
     <row r="118" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B118" s="6">
-        <v>17</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I118" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="15"/>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B119" s="6">
-        <v>18</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I119" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="15"/>
     </row>
     <row r="120" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B120" s="6">
-        <v>19</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I120" s="37" t="s">
-        <v>14</v>
-      </c>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="37"/>
     </row>
     <row r="121" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" s="6">
-        <v>20</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I121" s="37" t="s">
-        <v>14</v>
-      </c>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="37"/>
     </row>
     <row r="122" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B122" s="6">
-        <v>21</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
       <c r="I122" s="37"/>
     </row>
     <row r="123" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B123" s="6">
-        <v>22</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="37"/>
     </row>
     <row r="124" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B124" s="6">
-        <v>23</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I124" s="37" t="s">
-        <v>14</v>
-      </c>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="37"/>
     </row>
     <row r="125" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B125" s="6">
-        <v>24</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I125" s="37" t="s">
-        <v>272</v>
-      </c>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="37"/>
     </row>
     <row r="126" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B126" s="6">
-        <v>25</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I126" s="37" t="s">
-        <v>14</v>
-      </c>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="37"/>
     </row>
     <row r="127" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B127" s="6">
-        <v>26</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="37"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B128" s="6">
-        <v>27</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F128" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="H128" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I128" s="25" t="s">
-        <v>14</v>
-      </c>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="35"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="21"/>
@@ -8427,62 +6019,26 @@
       <c r="I129" s="23"/>
     </row>
     <row r="130" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B130" s="6">
-        <v>1</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I130" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="15"/>
     </row>
     <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B131" s="6">
-        <v>2</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="15"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="21"/>
@@ -17176,1151 +14732,1148 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E18 E122:E128 E88:E110 E69 E134:E140">
-    <cfRule type="cellIs" dxfId="223" priority="454" operator="equal">
+  <conditionalFormatting sqref="E2:E7 E122:E128 E88:E110 E69 E134:E140 E11:E18">
+    <cfRule type="cellIs" dxfId="225" priority="456" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E18 E122:E128 E88:E110 E69 E134:E140">
-    <cfRule type="cellIs" dxfId="222" priority="453" operator="equal">
+  <conditionalFormatting sqref="E2:E7 E122:E128 E88:E110 E69 E134:E140 E11:E18">
+    <cfRule type="cellIs" dxfId="224" priority="455" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="221" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="452" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="220" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="451" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E24 E26">
+    <cfRule type="cellIs" dxfId="221" priority="232" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E24 E26">
+    <cfRule type="cellIs" dxfId="220" priority="231" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E39">
     <cfRule type="cellIs" dxfId="219" priority="230" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E24 E26">
+  <conditionalFormatting sqref="E28:E39">
     <cfRule type="cellIs" dxfId="218" priority="229" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E39">
+  <conditionalFormatting sqref="E40 E44 E48">
     <cfRule type="cellIs" dxfId="217" priority="228" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E39">
+  <conditionalFormatting sqref="E40 E44 E48">
     <cfRule type="cellIs" dxfId="216" priority="227" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40 E44 E48">
+  <conditionalFormatting sqref="E52 E56 E60">
     <cfRule type="cellIs" dxfId="215" priority="226" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40 E44 E48">
+  <conditionalFormatting sqref="E52 E56 E60">
     <cfRule type="cellIs" dxfId="214" priority="225" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52 E56 E60">
+  <conditionalFormatting sqref="E64 E68">
     <cfRule type="cellIs" dxfId="213" priority="224" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52 E56 E60">
+  <conditionalFormatting sqref="E64 E68">
     <cfRule type="cellIs" dxfId="212" priority="223" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64 E68">
-    <cfRule type="cellIs" dxfId="211" priority="222" operator="equal">
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="211" priority="220" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64 E68">
-    <cfRule type="cellIs" dxfId="210" priority="221" operator="equal">
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="210" priority="219" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="209" priority="218" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="208" priority="217" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="207" priority="216" operator="equal">
+  <conditionalFormatting sqref="E111:E119">
+    <cfRule type="cellIs" dxfId="207" priority="212" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="206" priority="215" operator="equal">
+  <conditionalFormatting sqref="E111:E119">
+    <cfRule type="cellIs" dxfId="206" priority="211" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111:E119">
+  <conditionalFormatting sqref="E129:E133">
     <cfRule type="cellIs" dxfId="205" priority="210" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111:E119">
+  <conditionalFormatting sqref="E129:E133">
     <cfRule type="cellIs" dxfId="204" priority="209" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E129:E133">
-    <cfRule type="cellIs" dxfId="203" priority="208" operator="equal">
+  <conditionalFormatting sqref="E142:E151">
+    <cfRule type="cellIs" dxfId="203" priority="206" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E129:E133">
-    <cfRule type="cellIs" dxfId="202" priority="207" operator="equal">
+  <conditionalFormatting sqref="E142:E151">
+    <cfRule type="cellIs" dxfId="202" priority="205" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142:E151">
+  <conditionalFormatting sqref="E153:E162">
     <cfRule type="cellIs" dxfId="201" priority="204" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142:E151">
+  <conditionalFormatting sqref="E153:E162">
     <cfRule type="cellIs" dxfId="200" priority="203" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E153:E162">
+  <conditionalFormatting sqref="E164:E173">
     <cfRule type="cellIs" dxfId="199" priority="202" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E153:E162">
+  <conditionalFormatting sqref="E164:E173">
     <cfRule type="cellIs" dxfId="198" priority="201" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164:E173">
+  <conditionalFormatting sqref="E175:E184">
     <cfRule type="cellIs" dxfId="197" priority="200" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164:E173">
+  <conditionalFormatting sqref="E175:E184">
     <cfRule type="cellIs" dxfId="196" priority="199" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E175:E184">
+  <conditionalFormatting sqref="E186:E195">
     <cfRule type="cellIs" dxfId="195" priority="198" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E175:E184">
+  <conditionalFormatting sqref="E186:E195">
     <cfRule type="cellIs" dxfId="194" priority="197" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E186:E195">
+  <conditionalFormatting sqref="E197:E206">
     <cfRule type="cellIs" dxfId="193" priority="196" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E186:E195">
+  <conditionalFormatting sqref="E197:E206">
     <cfRule type="cellIs" dxfId="192" priority="195" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E197:E206">
+  <conditionalFormatting sqref="E208:E217">
     <cfRule type="cellIs" dxfId="191" priority="194" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E197:E206">
+  <conditionalFormatting sqref="E208:E217">
     <cfRule type="cellIs" dxfId="190" priority="193" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E208:E217">
+  <conditionalFormatting sqref="E219:E228">
     <cfRule type="cellIs" dxfId="189" priority="192" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E208:E217">
+  <conditionalFormatting sqref="E219:E228">
     <cfRule type="cellIs" dxfId="188" priority="191" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E219:E228">
+  <conditionalFormatting sqref="E230:E239">
     <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E219:E228">
+  <conditionalFormatting sqref="E230:E239">
     <cfRule type="cellIs" dxfId="186" priority="189" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E230:E239">
+  <conditionalFormatting sqref="E241:E250">
     <cfRule type="cellIs" dxfId="185" priority="188" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E230:E239">
+  <conditionalFormatting sqref="E241:E250">
     <cfRule type="cellIs" dxfId="184" priority="187" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E241:E250">
+  <conditionalFormatting sqref="E252:E261">
     <cfRule type="cellIs" dxfId="183" priority="186" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E241:E250">
+  <conditionalFormatting sqref="E252:E261">
     <cfRule type="cellIs" dxfId="182" priority="185" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E252:E261">
+  <conditionalFormatting sqref="E263:E272">
     <cfRule type="cellIs" dxfId="181" priority="184" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E252:E261">
+  <conditionalFormatting sqref="E263:E272">
     <cfRule type="cellIs" dxfId="180" priority="183" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E263:E272">
+  <conditionalFormatting sqref="E274:E283">
     <cfRule type="cellIs" dxfId="179" priority="182" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E263:E272">
+  <conditionalFormatting sqref="E274:E283">
     <cfRule type="cellIs" dxfId="178" priority="181" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E274:E283">
+  <conditionalFormatting sqref="E285:E294">
     <cfRule type="cellIs" dxfId="177" priority="180" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E274:E283">
+  <conditionalFormatting sqref="E285:E294">
     <cfRule type="cellIs" dxfId="176" priority="179" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E285:E294">
+  <conditionalFormatting sqref="E296:E305">
     <cfRule type="cellIs" dxfId="175" priority="178" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E285:E294">
+  <conditionalFormatting sqref="E296:E305">
     <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E296:E305">
+  <conditionalFormatting sqref="E307:E316">
     <cfRule type="cellIs" dxfId="173" priority="176" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E296:E305">
+  <conditionalFormatting sqref="E307:E316">
     <cfRule type="cellIs" dxfId="172" priority="175" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E307:E316">
+  <conditionalFormatting sqref="E318:E327">
     <cfRule type="cellIs" dxfId="171" priority="174" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E307:E316">
+  <conditionalFormatting sqref="E318:E327">
     <cfRule type="cellIs" dxfId="170" priority="173" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E318:E327">
+  <conditionalFormatting sqref="E329:E338">
     <cfRule type="cellIs" dxfId="169" priority="172" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E318:E327">
+  <conditionalFormatting sqref="E329:E338">
     <cfRule type="cellIs" dxfId="168" priority="171" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E329:E338">
+  <conditionalFormatting sqref="E340:E349">
     <cfRule type="cellIs" dxfId="167" priority="170" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E329:E338">
+  <conditionalFormatting sqref="E340:E349">
     <cfRule type="cellIs" dxfId="166" priority="169" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E340:E349">
+  <conditionalFormatting sqref="E351:E360">
     <cfRule type="cellIs" dxfId="165" priority="168" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E340:E349">
+  <conditionalFormatting sqref="E351:E360">
     <cfRule type="cellIs" dxfId="164" priority="167" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E351:E360">
+  <conditionalFormatting sqref="E362:E371">
     <cfRule type="cellIs" dxfId="163" priority="166" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E351:E360">
+  <conditionalFormatting sqref="E362:E371">
     <cfRule type="cellIs" dxfId="162" priority="165" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E362:E371">
+  <conditionalFormatting sqref="E373:E382">
     <cfRule type="cellIs" dxfId="161" priority="164" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E362:E371">
+  <conditionalFormatting sqref="E373:E382">
     <cfRule type="cellIs" dxfId="160" priority="163" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E373:E382">
+  <conditionalFormatting sqref="E384:E393">
     <cfRule type="cellIs" dxfId="159" priority="162" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E373:E382">
+  <conditionalFormatting sqref="E384:E393">
     <cfRule type="cellIs" dxfId="158" priority="161" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E384:E393">
+  <conditionalFormatting sqref="E395:E404">
     <cfRule type="cellIs" dxfId="157" priority="160" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E384:E393">
+  <conditionalFormatting sqref="E395:E404">
     <cfRule type="cellIs" dxfId="156" priority="159" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E395:E404">
+  <conditionalFormatting sqref="E406:E415">
     <cfRule type="cellIs" dxfId="155" priority="158" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E395:E404">
+  <conditionalFormatting sqref="E406:E415">
     <cfRule type="cellIs" dxfId="154" priority="157" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E406:E415">
+  <conditionalFormatting sqref="E417:E426">
     <cfRule type="cellIs" dxfId="153" priority="156" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E406:E415">
+  <conditionalFormatting sqref="E417:E426">
     <cfRule type="cellIs" dxfId="152" priority="155" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E417:E426">
+  <conditionalFormatting sqref="E428:E437">
     <cfRule type="cellIs" dxfId="151" priority="154" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E417:E426">
+  <conditionalFormatting sqref="E428:E437">
     <cfRule type="cellIs" dxfId="150" priority="153" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E428:E437">
+  <conditionalFormatting sqref="E439:E448">
     <cfRule type="cellIs" dxfId="149" priority="152" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E428:E437">
+  <conditionalFormatting sqref="E439:E448">
     <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E439:E448">
+  <conditionalFormatting sqref="E450:E459">
     <cfRule type="cellIs" dxfId="147" priority="150" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E439:E448">
+  <conditionalFormatting sqref="E450:E459">
     <cfRule type="cellIs" dxfId="146" priority="149" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E450:E459">
+  <conditionalFormatting sqref="E461:E470">
     <cfRule type="cellIs" dxfId="145" priority="148" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E450:E459">
+  <conditionalFormatting sqref="E461:E470">
     <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E461:E470">
+  <conditionalFormatting sqref="E472:E481">
     <cfRule type="cellIs" dxfId="143" priority="146" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E461:E470">
+  <conditionalFormatting sqref="E472:E481">
     <cfRule type="cellIs" dxfId="142" priority="145" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E472:E481">
+  <conditionalFormatting sqref="E483:E492">
     <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E472:E481">
+  <conditionalFormatting sqref="E483:E492">
     <cfRule type="cellIs" dxfId="140" priority="143" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E483:E492">
+  <conditionalFormatting sqref="E494:E503">
     <cfRule type="cellIs" dxfId="139" priority="142" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E483:E492">
+  <conditionalFormatting sqref="E494:E503">
     <cfRule type="cellIs" dxfId="138" priority="141" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E494:E503">
+  <conditionalFormatting sqref="E505:E514">
     <cfRule type="cellIs" dxfId="137" priority="140" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E494:E503">
+  <conditionalFormatting sqref="E505:E514">
     <cfRule type="cellIs" dxfId="136" priority="139" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E505:E514">
+  <conditionalFormatting sqref="E516:E525">
     <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E505:E514">
+  <conditionalFormatting sqref="E516:E525">
     <cfRule type="cellIs" dxfId="134" priority="137" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E516:E525">
+  <conditionalFormatting sqref="E527:E536">
     <cfRule type="cellIs" dxfId="133" priority="136" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E516:E525">
+  <conditionalFormatting sqref="E527:E536">
     <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E527:E536">
+  <conditionalFormatting sqref="E538:E547">
     <cfRule type="cellIs" dxfId="131" priority="134" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E527:E536">
+  <conditionalFormatting sqref="E538:E547">
     <cfRule type="cellIs" dxfId="130" priority="133" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E538:E547">
+  <conditionalFormatting sqref="E549:E558">
     <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E538:E547">
+  <conditionalFormatting sqref="E549:E558">
     <cfRule type="cellIs" dxfId="128" priority="131" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E549:E558">
+  <conditionalFormatting sqref="E560:E569">
     <cfRule type="cellIs" dxfId="127" priority="130" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E549:E558">
+  <conditionalFormatting sqref="E560:E569">
     <cfRule type="cellIs" dxfId="126" priority="129" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E560:E569">
+  <conditionalFormatting sqref="E571:E580">
     <cfRule type="cellIs" dxfId="125" priority="128" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E560:E569">
+  <conditionalFormatting sqref="E571:E580">
     <cfRule type="cellIs" dxfId="124" priority="127" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E571:E580">
+  <conditionalFormatting sqref="E582:E591">
     <cfRule type="cellIs" dxfId="123" priority="126" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E571:E580">
+  <conditionalFormatting sqref="E582:E591">
     <cfRule type="cellIs" dxfId="122" priority="125" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E582:E591">
+  <conditionalFormatting sqref="E593:E602">
     <cfRule type="cellIs" dxfId="121" priority="124" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E582:E591">
+  <conditionalFormatting sqref="E593:E602">
     <cfRule type="cellIs" dxfId="120" priority="123" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E593:E602">
+  <conditionalFormatting sqref="E604:E613">
     <cfRule type="cellIs" dxfId="119" priority="122" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E593:E602">
+  <conditionalFormatting sqref="E604:E613">
     <cfRule type="cellIs" dxfId="118" priority="121" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E604:E613">
+  <conditionalFormatting sqref="E615:E624">
     <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E604:E613">
+  <conditionalFormatting sqref="E615:E624">
     <cfRule type="cellIs" dxfId="116" priority="119" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E615:E624">
+  <conditionalFormatting sqref="E626:E635">
     <cfRule type="cellIs" dxfId="115" priority="118" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E615:E624">
+  <conditionalFormatting sqref="E626:E635">
     <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E626:E635">
+  <conditionalFormatting sqref="E637:E646">
     <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E626:E635">
+  <conditionalFormatting sqref="E637:E646">
     <cfRule type="cellIs" dxfId="112" priority="115" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E637:E646">
+  <conditionalFormatting sqref="E648:E657">
     <cfRule type="cellIs" dxfId="111" priority="114" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E637:E646">
+  <conditionalFormatting sqref="E648:E657">
     <cfRule type="cellIs" dxfId="110" priority="113" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E648:E657">
+  <conditionalFormatting sqref="E659:E668">
     <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E648:E657">
+  <conditionalFormatting sqref="E659:E668">
     <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E659:E668">
+  <conditionalFormatting sqref="E670:E679">
     <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E659:E668">
+  <conditionalFormatting sqref="E670:E679">
     <cfRule type="cellIs" dxfId="106" priority="109" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E670:E679">
+  <conditionalFormatting sqref="E681:E690">
     <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E670:E679">
+  <conditionalFormatting sqref="E681:E690">
     <cfRule type="cellIs" dxfId="104" priority="107" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E681:E690">
+  <conditionalFormatting sqref="E692:E701">
     <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E681:E690">
+  <conditionalFormatting sqref="E692:E701">
     <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E692:E701">
+  <conditionalFormatting sqref="E703:E712">
     <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E692:E701">
+  <conditionalFormatting sqref="E703:E712">
     <cfRule type="cellIs" dxfId="100" priority="103" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E703:E712">
+  <conditionalFormatting sqref="E714:E723">
     <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E703:E712">
+  <conditionalFormatting sqref="E714:E723">
     <cfRule type="cellIs" dxfId="98" priority="101" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E714:E723">
+  <conditionalFormatting sqref="E725:E734">
     <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E714:E723">
+  <conditionalFormatting sqref="E725:E734">
     <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E734">
+  <conditionalFormatting sqref="E736:E745">
     <cfRule type="cellIs" dxfId="95" priority="98" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E725:E734">
+  <conditionalFormatting sqref="E736:E745">
     <cfRule type="cellIs" dxfId="94" priority="97" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E736:E745">
+  <conditionalFormatting sqref="E747:E756">
     <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E736:E745">
+  <conditionalFormatting sqref="E747:E756">
     <cfRule type="cellIs" dxfId="92" priority="95" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E747:E756">
+  <conditionalFormatting sqref="E758:E767">
     <cfRule type="cellIs" dxfId="91" priority="94" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E747:E756">
+  <conditionalFormatting sqref="E758:E767">
     <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E758:E767">
+  <conditionalFormatting sqref="E769:E778">
     <cfRule type="cellIs" dxfId="89" priority="92" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E758:E767">
+  <conditionalFormatting sqref="E769:E778">
     <cfRule type="cellIs" dxfId="88" priority="91" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E769:E778">
+  <conditionalFormatting sqref="E780:E789">
     <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E769:E778">
+  <conditionalFormatting sqref="E780:E789">
     <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E780:E789">
+  <conditionalFormatting sqref="E791:E800">
     <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E780:E789">
+  <conditionalFormatting sqref="E791:E800">
     <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E791:E800">
+  <conditionalFormatting sqref="E802:E811">
     <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E791:E800">
+  <conditionalFormatting sqref="E802:E811">
     <cfRule type="cellIs" dxfId="82" priority="85" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E802:E811">
+  <conditionalFormatting sqref="E813:E822">
     <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E802:E811">
+  <conditionalFormatting sqref="E813:E822">
     <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E813:E822">
+  <conditionalFormatting sqref="E824:E833">
     <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E813:E822">
+  <conditionalFormatting sqref="E824:E833">
     <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E824:E833">
+  <conditionalFormatting sqref="E835:E844">
     <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E824:E833">
+  <conditionalFormatting sqref="E835:E844">
     <cfRule type="cellIs" dxfId="76" priority="79" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E835:E844">
+  <conditionalFormatting sqref="E846:E855">
     <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E835:E844">
+  <conditionalFormatting sqref="E846:E855">
     <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E846:E855">
+  <conditionalFormatting sqref="E857:E866">
     <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E846:E855">
+  <conditionalFormatting sqref="E857:E866">
     <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E857:E866">
+  <conditionalFormatting sqref="E868:E877">
     <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E857:E866">
+  <conditionalFormatting sqref="E868:E877">
     <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E868:E877">
+  <conditionalFormatting sqref="E879:E888">
     <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E868:E877">
+  <conditionalFormatting sqref="E879:E888">
     <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E879:E888">
+  <conditionalFormatting sqref="E890:E899">
     <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E879:E888">
+  <conditionalFormatting sqref="E890:E899">
     <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E890:E899">
+  <conditionalFormatting sqref="E901:E910">
     <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E890:E899">
+  <conditionalFormatting sqref="E901:E910">
     <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E901:E910">
+  <conditionalFormatting sqref="E912:E921">
     <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E901:E910">
+  <conditionalFormatting sqref="E912:E921">
     <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E912:E921">
+  <conditionalFormatting sqref="E923:E932">
     <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E912:E921">
+  <conditionalFormatting sqref="E923:E932">
     <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E923:E932">
+  <conditionalFormatting sqref="E934:E943">
     <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E923:E932">
+  <conditionalFormatting sqref="E934:E943">
     <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E934:E943">
+  <conditionalFormatting sqref="E945:E954">
     <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E934:E943">
+  <conditionalFormatting sqref="E945:E954">
     <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E945:E954">
+  <conditionalFormatting sqref="E956:E965">
     <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E945:E954">
+  <conditionalFormatting sqref="E956:E965">
     <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E956:E965">
+  <conditionalFormatting sqref="E967:E976">
     <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E956:E965">
+  <conditionalFormatting sqref="E967:E976">
     <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E967:E976">
+  <conditionalFormatting sqref="E978:E987">
     <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E967:E976">
+  <conditionalFormatting sqref="E978:E987">
     <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E978:E987">
+  <conditionalFormatting sqref="E989:E998">
     <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E978:E987">
+  <conditionalFormatting sqref="E989:E998">
     <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E989:E998">
+  <conditionalFormatting sqref="E1000:E1009">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E989:E998">
+  <conditionalFormatting sqref="E1000:E1009">
     <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1000:E1009">
+  <conditionalFormatting sqref="E1011:E1020">
     <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1000:E1009">
+  <conditionalFormatting sqref="E1011:E1020">
     <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1011:E1020">
+  <conditionalFormatting sqref="E1022:E1031">
     <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1011:E1020">
+  <conditionalFormatting sqref="E1022:E1031">
     <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1022:E1031">
+  <conditionalFormatting sqref="E1033:E1042">
     <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1022:E1031">
+  <conditionalFormatting sqref="E1033:E1042">
     <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1033:E1042">
+  <conditionalFormatting sqref="E1044:E1053">
     <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1033:E1042">
+  <conditionalFormatting sqref="E1044:E1053">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1044:E1053">
+  <conditionalFormatting sqref="E1055:E1064">
     <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1044:E1053">
+  <conditionalFormatting sqref="E1055:E1064">
     <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1055:E1064">
+  <conditionalFormatting sqref="E1066:E1075">
     <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1055:E1064">
+  <conditionalFormatting sqref="E1066:E1075">
     <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1066:E1075">
+  <conditionalFormatting sqref="E1077:E1086">
     <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1066:E1075">
+  <conditionalFormatting sqref="E1077:E1086">
     <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1077:E1086">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1077:E1086">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E41:E43">
     <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E41:E43">
     <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E43">
+  <conditionalFormatting sqref="E45:E47">
     <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E43">
+  <conditionalFormatting sqref="E45:E47">
     <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E47">
+  <conditionalFormatting sqref="E49:E51">
     <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E47">
+  <conditionalFormatting sqref="E49:E51">
     <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E51">
+  <conditionalFormatting sqref="E53:E55">
     <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E51">
+  <conditionalFormatting sqref="E53:E55">
     <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E55">
+  <conditionalFormatting sqref="E57:E59">
     <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E55">
+  <conditionalFormatting sqref="E57:E59">
     <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E59">
+  <conditionalFormatting sqref="E61:E63">
     <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E59">
+  <conditionalFormatting sqref="E61:E63">
     <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
+  <conditionalFormatting sqref="E65:E67">
     <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
+  <conditionalFormatting sqref="E65:E67">
     <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E67">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+  <conditionalFormatting sqref="E73:E75">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E67">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+  <conditionalFormatting sqref="E73:E75">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E75">
+  <conditionalFormatting sqref="E76:E77">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E75">
+  <conditionalFormatting sqref="E76:E77">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:E77">
+  <conditionalFormatting sqref="E70:E72">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:E77">
+  <conditionalFormatting sqref="E70:E72">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:E72">
+  <conditionalFormatting sqref="E82:E84">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:E72">
+  <conditionalFormatting sqref="E82:E84">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E84">
+  <conditionalFormatting sqref="E85:E86">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E84">
+  <conditionalFormatting sqref="E85:E86">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
+  <conditionalFormatting sqref="E79:E81">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
+  <conditionalFormatting sqref="E79:E81">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E81">
+  <conditionalFormatting sqref="E120:E121">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E81">
+  <conditionalFormatting sqref="E120:E121">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120:E121">
+  <conditionalFormatting sqref="E8:E10">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120:E121">
+  <conditionalFormatting sqref="E8:E10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Please enter Y or N" sqref="E1066:E1075 E1077:E1086 E76:E81 E142:E151 E153:E162 E164:E173 E175:E184 E186:E195 E197:E206 E208:E217 E219:E228 E230:E239 E241:E250 E252:E261 E263:E272 E274:E283 E285:E294 E296:E305 E307:E316 E318:E327 E329:E338 E340:E349 E351:E360 E362:E371 E373:E382 E384:E393 E395:E404 E406:E415 E417:E426 E428:E437 E439:E448 E450:E459 E461:E470 E472:E481 E483:E492 E494:E503 E505:E514 E516:E525 E527:E536 E538:E547 E549:E558 E560:E569 E571:E580 E582:E591 E593:E602 E604:E613 E615:E624 E626:E635 E637:E646 E648:E657 E659:E668 E670:E679 E681:E690 E692:E701 E703:E712 E714:E723 E725:E734 E736:E745 E747:E756 E758:E767 E769:E778 E780:E789 E791:E800 E802:E811 E813:E822 E824:E833 E835:E844 E846:E855 E857:E866 E868:E877 E879:E888 E890:E899 E901:E910 E912:E921 E923:E932 E934:E943 E945:E954 E956:E965 E967:E976 E978:E987 E989:E998 E1000:E1009 E1011:E1020 E1022:E1031 E1033:E1042 E1044:E1053 E1055:E1064 E85:E97 E99:E109 E2:E72 E111:E140">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Please enter Y or N" sqref="E1066:E1075 E1077:E1086 E76:E81 E142:E151 E153:E162 E164:E173 E175:E184 E186:E195 E197:E206 E208:E217 E219:E228 E230:E239 E241:E250 E252:E261 E263:E272 E274:E283 E285:E294 E296:E305 E307:E316 E318:E327 E329:E338 E340:E349 E351:E360 E362:E371 E373:E382 E384:E393 E395:E404 E406:E415 E417:E426 E428:E437 E439:E448 E450:E459 E461:E470 E472:E481 E483:E492 E494:E503 E505:E514 E516:E525 E527:E536 E538:E547 E549:E558 E560:E569 E571:E580 E582:E591 E593:E602 E604:E613 E615:E624 E626:E635 E637:E646 E648:E657 E659:E668 E670:E679 E681:E690 E692:E701 E703:E712 E714:E723 E725:E734 E736:E745 E747:E756 E758:E767 E769:E778 E780:E789 E791:E800 E802:E811 E813:E822 E824:E833 E835:E844 E846:E855 E857:E866 E868:E877 E879:E888 E890:E899 E901:E910 E912:E921 E923:E932 E934:E943 E945:E954 E956:E965 E967:E976 E978:E987 E989:E998 E1000:E1009 E1011:E1020 E1022:E1031 E1033:E1042 E1044:E1053 E1055:E1064 E85:E97 E99:E109 E111:E140 E2:E72">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I13" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId2"/>
     <hyperlink ref="I15" r:id="rId3"/>
-    <hyperlink ref="I16" r:id="rId4"/>
-    <hyperlink ref="I24" r:id="rId5"/>
-    <hyperlink ref="I28" r:id="rId6"/>
-    <hyperlink ref="I33" r:id="rId7" display="https://demo.nopcommerce.com/apple-macbook-pro-13-inch"/>
-    <hyperlink ref="I41" r:id="rId8" display="https://demo.nopcommerce.com/lenovo-ideacentre-600-all-in-one-pc"/>
-    <hyperlink ref="I43" r:id="rId9" display="https://demo.nopcommerce.com/lenovo-ideacentre-600-all-in-one-pc"/>
-    <hyperlink ref="I47" r:id="rId10" display="https://demo.nopcommerce.com/nikon-d5500-dslr"/>
-    <hyperlink ref="I51" r:id="rId11" display="https://demo.nopcommerce.com/adidas-consortium-campus-80s-running-shoes"/>
-    <hyperlink ref="I57" r:id="rId12" display="https://demo.nopcommerce.com/fahrenheit-451-by-ray-bradbury"/>
-    <hyperlink ref="I59" r:id="rId13" display="https://demo.nopcommerce.com/fahrenheit-451-by-ray-bradbury"/>
-    <hyperlink ref="I63" r:id="rId14" display="https://demo.nopcommerce.com/elegant-gemstone-necklace-rental"/>
-    <hyperlink ref="I17" r:id="rId15"/>
-    <hyperlink ref="I27" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="6252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="6252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="169">
   <si>
     <t>TC_ID</t>
   </si>
@@ -843,13 +843,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>edge</t>
-  </si>
-  <si>
-    <t>//*[@id="header"]/div/div/div/a/???????</t>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -3914,9 +3908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3968,7 +3962,7 @@
         <v>131</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -3985,7 +3979,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -4694,9 +4688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2045"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4768,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4820,7 +4814,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>26</v>
@@ -5637,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="6252" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="6252"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="124">
   <si>
     <t>TC_ID</t>
   </si>
@@ -707,6 +707,9 @@
   <si>
     <t>firefox</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
@@ -963,6 +966,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,15 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3841,9 +3844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3878,7 +3881,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -3895,7 +3898,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -3912,7 +3915,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -4621,7 +4624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2049"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
@@ -4665,7 +4668,7 @@
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4694,7 +4697,7 @@
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4891,7 +4894,7 @@
       <c r="H9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -4918,7 +4921,7 @@
       <c r="H10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="31">
         <v>3</v>
       </c>
     </row>
@@ -4973,7 +4976,7 @@
       <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5170,7 +5173,7 @@
       <c r="H20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -5197,7 +5200,7 @@
       <c r="H21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="38"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -5224,7 +5227,7 @@
       <c r="H22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="31">
         <v>3</v>
       </c>
     </row>
@@ -5279,7 +5282,7 @@
       <c r="H25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="31" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5476,7 +5479,7 @@
       <c r="H32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="38"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -5503,7 +5506,7 @@
       <c r="H33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="38"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -5585,7 +5588,7 @@
       <c r="H36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="39"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
@@ -5612,7 +5615,7 @@
       <c r="H37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="39"/>
+      <c r="I37" s="32"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -5671,7 +5674,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="38"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
@@ -5722,7 +5725,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="38"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
@@ -5732,7 +5735,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="38"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
@@ -20108,10 +20111,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="33"/>
       <c r="E19" t="s">
         <v>58</v>
       </c>
@@ -20150,10 +20153,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="33"/>
       <c r="E23" t="s">
         <v>65</v>
       </c>
@@ -20192,10 +20195,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="35"/>
       <c r="E27" t="s">
         <v>74</v>
       </c>
@@ -20325,429 +20328,429 @@
   <sheetData>
     <row r="2" spans="3:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="3:13" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="17" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="3:13" ht="166.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -3846,7 +3846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3881,7 +3881,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -3846,7 +3846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3898,7 +3898,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -3898,7 +3898,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>

--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -3846,7 +3846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
